--- a/output/results.xlsx
+++ b/output/results.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
-  <si>
-    <t xml:space="preserve">Variable</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+  <si>
+    <t xml:space="preserve">Variável</t>
   </si>
   <si>
     <t xml:space="preserve">n</t>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">iqr</t>
   </si>
   <si>
-    <t xml:space="preserve">Value</t>
+    <t xml:space="preserve">Valor</t>
   </si>
   <si>
     <t xml:space="preserve">Grupo</t>
@@ -131,19 +131,19 @@
     <t xml:space="preserve">VO2categ</t>
   </si>
   <si>
-    <t xml:space="preserve">Test</t>
+    <t xml:space="preserve">Teste</t>
   </si>
   <si>
     <t xml:space="preserve">df</t>
   </si>
   <si>
-    <t xml:space="preserve">Statistic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p.value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Significance</t>
+    <t xml:space="preserve">Estatística</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Significância</t>
   </si>
   <si>
     <t xml:space="preserve">Effect_Size</t>
@@ -164,22 +164,25 @@
     <t xml:space="preserve">Wilcoxon rank sum test with continuity correction</t>
   </si>
   <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wilcoxon rank sum exact test</t>
   </si>
   <si>
-    <t xml:space="preserve">Variable1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variable2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correlation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corr_CI_lower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corr_CI_upper</t>
+    <t xml:space="preserve">Variável1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variável2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CI_lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CI_upper</t>
   </si>
   <si>
     <t xml:space="preserve">Pearson's product-moment correlation</t>
@@ -1844,7 +1847,7 @@
         <v>0.0413606847992443</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G5" t="n">
         <v>-1.1276350634024</v>
@@ -1861,7 +1864,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6"/>
       <c r="D6" t="n">
@@ -1871,7 +1874,7 @@
         <v>0.0104118104118104</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G6" t="n">
         <v>0.375</v>
@@ -1900,7 +1903,7 @@
         <v>0.044901913054563</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G7" t="n">
         <v>1.11295775826732</v>
@@ -2074,7 +2077,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="n">
@@ -2141,10 +2144,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
         <v>37</v>
@@ -2153,7 +2156,7 @@
         <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F1" t="s">
         <v>40</v>
@@ -2162,10 +2165,10 @@
         <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2">
@@ -2176,7 +2179,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" t="n">
         <v>14</v>
@@ -2205,7 +2208,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
@@ -2228,7 +2231,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4" t="n">
         <v>14</v>
@@ -2257,7 +2260,7 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="n">
@@ -2280,7 +2283,7 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D6" t="n">
         <v>14</v>
@@ -2309,7 +2312,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="n">
@@ -2332,7 +2335,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="n">
@@ -2355,7 +2358,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D9" t="n">
         <v>14</v>
@@ -2384,7 +2387,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="n">
@@ -2407,7 +2410,7 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11" t="n">
         <v>14</v>
@@ -2436,7 +2439,7 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="n">
@@ -2459,7 +2462,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="n">
@@ -2482,7 +2485,7 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="n">
@@ -2492,7 +2495,7 @@
         <v>0.0118351953757942</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H14"/>
       <c r="I14"/>
@@ -2505,7 +2508,7 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="n">
@@ -2515,7 +2518,7 @@
         <v>0.0195001603739974</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H15"/>
       <c r="I15"/>
@@ -2528,7 +2531,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="n">
@@ -2551,7 +2554,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="n">
@@ -2574,7 +2577,7 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" t="n">
         <v>14</v>
@@ -2603,7 +2606,7 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="n">
@@ -2626,7 +2629,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D20"/>
       <c r="E20" t="n">
@@ -2649,7 +2652,7 @@
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D21"/>
       <c r="E21" t="n">
@@ -2672,7 +2675,7 @@
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="n">
@@ -2703,10 +2706,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
         <v>37</v>
@@ -2715,7 +2718,7 @@
         <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F1" t="s">
         <v>40</v>
@@ -2724,10 +2727,10 @@
         <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2">
@@ -2738,7 +2741,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" t="n">
         <v>14</v>
@@ -2767,7 +2770,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
@@ -2790,7 +2793,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4" t="n">
         <v>14</v>
@@ -2819,7 +2822,7 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="n">
@@ -2842,7 +2845,7 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D6" t="n">
         <v>14</v>
@@ -2871,7 +2874,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="n">
